--- a/translation/xlsx/_tsum_tips_013.xlsx
+++ b/translation/xlsx/_tsum_tips_013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="173">
   <si>
     <t>actor</t>
   </si>
@@ -330,6 +330,9 @@
     <t>\"...I think so, too... I think we're going to have the same ending this time again.</t>
   </si>
   <si>
+    <t xml:space="preserve">\"......나도 ...어차피 틀렸다고는 생각해....  </t>
+  </si>
+  <si>
     <t xml:space="preserve">\"......나도 </t>
   </si>
   <si>
@@ -337,6 +340,9 @@
   </si>
   <si>
     <t xml:space="preserve"> ...But I'm not going to give up hope until I throw the die for the last time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...하지만, 마지막 주사위를 던질 때까지 나는 포기하지 않아. </t>
   </si>
   <si>
     <t xml:space="preserve">...어차피 틀렸다고는 생각해.... </t>
@@ -348,7 +354,7 @@
     <t xml:space="preserve"> Keiichi taught me that. </t>
   </si>
   <si>
-    <t xml:space="preserve">...하지만, 마지막 주사위를 던질 때까지 나는 포기하지 않아. </t>
+    <t xml:space="preserve">케이이치가 가르쳐 줬어. </t>
   </si>
   <si>
     <t>今回は何かが違うの。</t>
@@ -357,7 +363,7 @@
     <t>Something is going to be different this time.</t>
   </si>
   <si>
-    <t xml:space="preserve">케이이치가 가르쳐 줬어. </t>
+    <t xml:space="preserve">이번에는 무언가가 달라. </t>
   </si>
   <si>
     <t>……だからそれを信じてみる。」</t>
@@ -366,7 +372,7 @@
     <t xml:space="preserve"> ...I'll try to believe in that.\"</t>
   </si>
   <si>
-    <t xml:space="preserve">이번에는 무언가가 달라. </t>
+    <t xml:space="preserve">......그러니까 믿어볼래.\" </t>
   </si>
   <si>
     <t>「……………梨花は、…………本当に強いのです。」</t>
@@ -375,7 +381,7 @@
     <t>\"......Rika... you're a very strong person.\"</t>
   </si>
   <si>
-    <t xml:space="preserve">......그러니까 믿어볼래.\" </t>
+    <t xml:space="preserve">\".........리카는 ............정말로 강한 거예요.\" </t>
   </si>
   <si>
     <t>「まぁね。</t>
@@ -384,7 +390,7 @@
     <t>\"Yeah, I know.</t>
   </si>
   <si>
-    <t xml:space="preserve">\".........리카는 ............정말로 강한 거예요.\" </t>
+    <t xml:space="preserve">\"뭐 그런가. </t>
   </si>
   <si>
     <t>あんたよりはずっと若いし。」</t>
@@ -393,7 +399,7 @@
     <t xml:space="preserve"> That's because I'm a lot younger than you.\"</t>
   </si>
   <si>
-    <t xml:space="preserve">\"뭐 그런가. </t>
+    <t xml:space="preserve">너보다는 훨씬 젊으니까.\" </t>
   </si>
   <si>
     <t>Satoko</t>
@@ -405,7 +411,7 @@
     <t>\"......Mmm...</t>
   </si>
   <si>
-    <t xml:space="preserve">너보다는 훨씬 젊으니까.\" </t>
+    <t xml:space="preserve">\".........으응, </t>
   </si>
   <si>
     <t>…むにゃむにゃ……、</t>
@@ -414,7 +420,7 @@
     <t xml:space="preserve"> Yawn.........</t>
   </si>
   <si>
-    <t xml:space="preserve">\".........으응, </t>
+    <t xml:space="preserve">...음냐 음냐......, </t>
   </si>
   <si>
     <t>………梨花ぁ…？」</t>
@@ -423,7 +429,7 @@
     <t xml:space="preserve"> Rika...?\"</t>
   </si>
   <si>
-    <t xml:space="preserve">...음냐 음냐......, </t>
+    <t xml:space="preserve">.........리카...?\" </t>
   </si>
   <si>
     <t>「……みー。」</t>
@@ -432,7 +438,7 @@
     <t>\"...Meep.\"</t>
   </si>
   <si>
-    <t xml:space="preserve">.........리카...?\" </t>
+    <t xml:space="preserve">\"......미-.\" </t>
   </si>
   <si>
     <t>「こんな時間に起きてて、</t>
@@ -441,7 +447,7 @@
     <t>\"Why are you still awake...?</t>
   </si>
   <si>
-    <t xml:space="preserve">\"......미-.\" </t>
+    <t xml:space="preserve">\"이런 시간에 일어나 있다니... </t>
   </si>
   <si>
     <t>…ふわぁ……、</t>
@@ -450,7 +456,7 @@
     <t xml:space="preserve"> ...Yawn...</t>
   </si>
   <si>
-    <t xml:space="preserve">\"이런 시간에 일어나 있다니... </t>
+    <t xml:space="preserve">후와암...... </t>
   </si>
   <si>
     <t>夜更かしは駄目でございましてよぉ…。」</t>
@@ -459,7 +465,7 @@
     <t xml:space="preserve"> It's not good to stay up so late...\"</t>
   </si>
   <si>
-    <t xml:space="preserve">후와암...... </t>
+    <t xml:space="preserve">밤을 새는 건 안 되와요....\" </t>
   </si>
   <si>
     <t>「……ごめんなさいなのです。</t>
@@ -468,7 +474,7 @@
     <t>\"...I'm sorry.</t>
   </si>
   <si>
-    <t xml:space="preserve">밤을 새는 건 안 되와요....\" </t>
+    <t>\"...미안한 거예요.</t>
   </si>
   <si>
     <t>寝苦しかったので星を見ていただけなのですよ。</t>
@@ -535,7 +541,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -550,6 +556,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -569,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -579,10 +590,16 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -819,16 +836,15 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
@@ -859,10 +875,9 @@
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -894,10 +909,9 @@
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -927,10 +941,9 @@
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -962,10 +975,9 @@
       <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -997,10 +1009,9 @@
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -1030,10 +1041,9 @@
       <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -1063,10 +1073,9 @@
       <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -1098,10 +1107,9 @@
       <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1131,10 +1139,9 @@
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -1166,10 +1173,9 @@
       <c r="D11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="H11" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -1199,10 +1205,9 @@
       <c r="D12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="H12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -1234,10 +1239,9 @@
       <c r="D13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="H13" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -1269,10 +1273,9 @@
       <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -1304,10 +1307,9 @@
       <c r="D15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="H15" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -1337,10 +1339,9 @@
       <c r="D16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="H16" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -1370,10 +1371,9 @@
       <c r="D17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="H17" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1403,10 +1403,9 @@
       <c r="D18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="H18" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1436,10 +1435,9 @@
       <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="H19" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1469,10 +1467,9 @@
       <c r="D20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="H20" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1502,10 +1499,9 @@
       <c r="D21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="H21" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
@@ -1535,10 +1531,9 @@
       <c r="D22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
@@ -1568,10 +1563,9 @@
       <c r="D23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="H23" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
@@ -1601,10 +1595,9 @@
       <c r="D24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="H24" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
@@ -1634,10 +1627,9 @@
       <c r="D25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="H25" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
@@ -1667,10 +1659,9 @@
       <c r="D26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="H26" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -1700,10 +1691,9 @@
       <c r="D27" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="H27" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
@@ -1733,10 +1723,9 @@
       <c r="D28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="H28" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
@@ -1766,10 +1755,9 @@
       <c r="D29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="H29" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
@@ -1801,10 +1789,9 @@
       <c r="D30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="H30" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -1836,10 +1823,9 @@
       <c r="D31" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="H31" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
@@ -1869,10 +1855,9 @@
       <c r="D32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="H32" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -1904,10 +1889,9 @@
       <c r="D33" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="H33" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -1930,7 +1914,7 @@
       <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -1939,10 +1923,9 @@
       <c r="D34" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="H34" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -1963,19 +1946,18 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2"/>
-      <c r="B35" s="3" t="s">
-        <v>105</v>
+      <c r="B35" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="H35" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -1996,19 +1978,18 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -2031,19 +2012,18 @@
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>111</v>
+      <c r="B37" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -2065,18 +2045,17 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -2100,18 +2079,17 @@
         <v>6</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C39" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -2135,18 +2113,17 @@
         <v>10</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
@@ -2168,18 +2145,17 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
@@ -2200,21 +2176,20 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
@@ -2236,18 +2211,17 @@
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
       <c r="L43" s="2"/>
@@ -2269,18 +2243,17 @@
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H44" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
@@ -2304,18 +2277,17 @@
         <v>10</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H45" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
@@ -2336,21 +2308,20 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>139</v>
+      <c r="B46" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="C46" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
@@ -2371,19 +2342,18 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
-      <c r="B47" s="3" t="s">
-        <v>142</v>
+      <c r="B47" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -2404,19 +2374,18 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2"/>
-      <c r="B48" s="3" t="s">
-        <v>145</v>
+      <c r="B48" s="5" t="s">
+        <v>147</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
@@ -2439,19 +2408,18 @@
       <c r="A49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>148</v>
+      <c r="B49" s="5" t="s">
+        <v>150</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
@@ -2472,22 +2440,21 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2"/>
-      <c r="B50" s="3" t="s">
-        <v>151</v>
+      <c r="B50" s="5" t="s">
+        <v>153</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>152</v>
+      <c r="C50" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>154</v>
+      <c r="H50" s="4" t="s">
+        <v>155</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="I50" t="s">
+        <v>156</v>
+      </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
@@ -2509,21 +2476,20 @@
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E51" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="D51" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I51" t="s">
+        <v>160</v>
+      </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
@@ -2544,24 +2510,23 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="D52" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="I52" t="s">
+        <v>164</v>
+      </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
@@ -2583,21 +2548,20 @@
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E53" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="D53" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I53" t="s">
+        <v>168</v>
+      </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
@@ -2621,21 +2585,20 @@
         <v>10</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E54" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="D54" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I54" t="s">
+        <v>172</v>
+      </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
@@ -2658,11 +2621,7 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="H55" s="8"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -2686,7 +2645,7 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="6"/>
+      <c r="D56" s="8"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -2714,7 +2673,7 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="6"/>
+      <c r="D57" s="8"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -2742,7 +2701,7 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="6"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2770,7 +2729,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="6"/>
+      <c r="D59" s="8"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -2798,7 +2757,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="6"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -2826,7 +2785,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="6"/>
+      <c r="D61" s="8"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -2854,7 +2813,7 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="6"/>
+      <c r="D62" s="8"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -2882,7 +2841,7 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="6"/>
+      <c r="D63" s="8"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -2910,7 +2869,7 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="6"/>
+      <c r="D64" s="8"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -2938,7 +2897,7 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="6"/>
+      <c r="D65" s="8"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -2966,7 +2925,7 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="6"/>
+      <c r="D66" s="8"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -2994,7 +2953,7 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="6"/>
+      <c r="D67" s="8"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -3022,7 +2981,7 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="6"/>
+      <c r="D68" s="8"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -3050,7 +3009,7 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="6"/>
+      <c r="D69" s="8"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
@@ -3078,7 +3037,7 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="6"/>
+      <c r="D70" s="8"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -3106,7 +3065,7 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="6"/>
+      <c r="D71" s="8"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -3134,7 +3093,7 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="6"/>
+      <c r="D72" s="8"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -3162,7 +3121,7 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="6"/>
+      <c r="D73" s="8"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -3190,7 +3149,7 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="6"/>
+      <c r="D74" s="8"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -3218,7 +3177,7 @@
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="6"/>
+      <c r="D75" s="8"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -3246,7 +3205,7 @@
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="6"/>
+      <c r="D76" s="8"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -3274,7 +3233,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="6"/>
+      <c r="D77" s="8"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -3302,7 +3261,7 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="6"/>
+      <c r="D78" s="8"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -3330,7 +3289,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="6"/>
+      <c r="D79" s="8"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -3358,7 +3317,7 @@
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="6"/>
+      <c r="D80" s="8"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -3386,7 +3345,7 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="6"/>
+      <c r="D81" s="8"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -3414,7 +3373,7 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="6"/>
+      <c r="D82" s="8"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -3442,7 +3401,7 @@
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="6"/>
+      <c r="D83" s="8"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -3470,7 +3429,7 @@
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="6"/>
+      <c r="D84" s="8"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -3498,7 +3457,7 @@
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="6"/>
+      <c r="D85" s="8"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -3526,7 +3485,7 @@
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="6"/>
+      <c r="D86" s="8"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -3554,7 +3513,7 @@
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="6"/>
+      <c r="D87" s="8"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -3582,7 +3541,7 @@
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="6"/>
+      <c r="D88" s="8"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -3610,7 +3569,7 @@
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="6"/>
+      <c r="D89" s="8"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -3638,7 +3597,7 @@
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="6"/>
+      <c r="D90" s="8"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -3666,7 +3625,7 @@
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="6"/>
+      <c r="D91" s="8"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -3694,7 +3653,7 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="6"/>
+      <c r="D92" s="8"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -3722,7 +3681,7 @@
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="6"/>
+      <c r="D93" s="8"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -3750,7 +3709,7 @@
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="6"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -3778,7 +3737,7 @@
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="6"/>
+      <c r="D95" s="8"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -3806,7 +3765,7 @@
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="6"/>
+      <c r="D96" s="8"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -3834,7 +3793,7 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="6"/>
+      <c r="D97" s="8"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -3862,7 +3821,7 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="6"/>
+      <c r="D98" s="8"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -3890,7 +3849,7 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="6"/>
+      <c r="D99" s="8"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -3918,7 +3877,7 @@
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="6"/>
+      <c r="D100" s="8"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -3946,7 +3905,7 @@
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="6"/>
+      <c r="D101" s="8"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -3974,7 +3933,7 @@
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="6"/>
+      <c r="D102" s="8"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
@@ -4002,7 +3961,7 @@
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="6"/>
+      <c r="D103" s="8"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -4030,7 +3989,7 @@
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="6"/>
+      <c r="D104" s="8"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -4058,7 +4017,7 @@
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="6"/>
+      <c r="D105" s="8"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -4086,7 +4045,7 @@
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
-      <c r="D106" s="6"/>
+      <c r="D106" s="8"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
@@ -4114,7 +4073,7 @@
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="6"/>
+      <c r="D107" s="8"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
@@ -4142,7 +4101,7 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="6"/>
+      <c r="D108" s="8"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -4170,7 +4129,7 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="6"/>
+      <c r="D109" s="8"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -4198,7 +4157,7 @@
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="6"/>
+      <c r="D110" s="8"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -4226,7 +4185,7 @@
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
-      <c r="D111" s="6"/>
+      <c r="D111" s="8"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -4254,7 +4213,7 @@
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
-      <c r="D112" s="6"/>
+      <c r="D112" s="8"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
@@ -4282,7 +4241,7 @@
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
-      <c r="D113" s="6"/>
+      <c r="D113" s="8"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
@@ -4310,7 +4269,7 @@
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="6"/>
+      <c r="D114" s="8"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -4338,7 +4297,7 @@
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
-      <c r="D115" s="6"/>
+      <c r="D115" s="8"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
@@ -4366,7 +4325,7 @@
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="6"/>
+      <c r="D116" s="8"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
@@ -4394,7 +4353,7 @@
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="6"/>
+      <c r="D117" s="8"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
@@ -4422,7 +4381,7 @@
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="6"/>
+      <c r="D118" s="8"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -4450,7 +4409,7 @@
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="6"/>
+      <c r="D119" s="8"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
@@ -4478,7 +4437,7 @@
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
-      <c r="D120" s="6"/>
+      <c r="D120" s="8"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
@@ -4506,7 +4465,7 @@
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-      <c r="D121" s="6"/>
+      <c r="D121" s="8"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -4534,7 +4493,7 @@
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
-      <c r="D122" s="6"/>
+      <c r="D122" s="8"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -4562,7 +4521,7 @@
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
-      <c r="D123" s="6"/>
+      <c r="D123" s="8"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
@@ -4590,7 +4549,7 @@
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
-      <c r="D124" s="6"/>
+      <c r="D124" s="8"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
@@ -4618,7 +4577,7 @@
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="6"/>
+      <c r="D125" s="8"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
@@ -4646,7 +4605,7 @@
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
-      <c r="D126" s="6"/>
+      <c r="D126" s="8"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
@@ -4674,7 +4633,7 @@
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
-      <c r="D127" s="6"/>
+      <c r="D127" s="8"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
@@ -4702,7 +4661,7 @@
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
-      <c r="D128" s="6"/>
+      <c r="D128" s="8"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
@@ -4730,7 +4689,7 @@
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
-      <c r="D129" s="6"/>
+      <c r="D129" s="8"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -4758,7 +4717,7 @@
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
-      <c r="D130" s="6"/>
+      <c r="D130" s="8"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -4786,7 +4745,7 @@
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
-      <c r="D131" s="6"/>
+      <c r="D131" s="8"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -4814,7 +4773,7 @@
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
-      <c r="D132" s="6"/>
+      <c r="D132" s="8"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -4842,7 +4801,7 @@
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
-      <c r="D133" s="6"/>
+      <c r="D133" s="8"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -4870,7 +4829,7 @@
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
-      <c r="D134" s="6"/>
+      <c r="D134" s="8"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -4898,7 +4857,7 @@
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
-      <c r="D135" s="6"/>
+      <c r="D135" s="8"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -4926,7 +4885,7 @@
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
-      <c r="D136" s="6"/>
+      <c r="D136" s="8"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -4954,7 +4913,7 @@
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
-      <c r="D137" s="6"/>
+      <c r="D137" s="8"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -4982,7 +4941,7 @@
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
-      <c r="D138" s="6"/>
+      <c r="D138" s="8"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -5010,7 +4969,7 @@
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
-      <c r="D139" s="6"/>
+      <c r="D139" s="8"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -5038,7 +4997,7 @@
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
-      <c r="D140" s="6"/>
+      <c r="D140" s="8"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -5066,7 +5025,7 @@
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
-      <c r="D141" s="6"/>
+      <c r="D141" s="8"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
@@ -5094,7 +5053,7 @@
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
-      <c r="D142" s="6"/>
+      <c r="D142" s="8"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
@@ -5122,7 +5081,7 @@
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
-      <c r="D143" s="6"/>
+      <c r="D143" s="8"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -5150,7 +5109,7 @@
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
-      <c r="D144" s="6"/>
+      <c r="D144" s="8"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
@@ -5178,7 +5137,7 @@
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
-      <c r="D145" s="6"/>
+      <c r="D145" s="8"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
@@ -5206,7 +5165,7 @@
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
-      <c r="D146" s="6"/>
+      <c r="D146" s="8"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
@@ -5234,7 +5193,7 @@
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
-      <c r="D147" s="6"/>
+      <c r="D147" s="8"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -5262,7 +5221,7 @@
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
-      <c r="D148" s="6"/>
+      <c r="D148" s="8"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
@@ -5290,7 +5249,7 @@
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
-      <c r="D149" s="6"/>
+      <c r="D149" s="8"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
@@ -5318,7 +5277,7 @@
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
-      <c r="D150" s="6"/>
+      <c r="D150" s="8"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
@@ -5346,7 +5305,7 @@
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
-      <c r="D151" s="6"/>
+      <c r="D151" s="8"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
@@ -5374,7 +5333,7 @@
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
-      <c r="D152" s="6"/>
+      <c r="D152" s="8"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
@@ -5402,7 +5361,7 @@
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
-      <c r="D153" s="6"/>
+      <c r="D153" s="8"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
@@ -5430,7 +5389,7 @@
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
-      <c r="D154" s="6"/>
+      <c r="D154" s="8"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
@@ -5458,7 +5417,7 @@
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
-      <c r="D155" s="6"/>
+      <c r="D155" s="8"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
@@ -5486,7 +5445,7 @@
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
-      <c r="D156" s="6"/>
+      <c r="D156" s="8"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
@@ -5514,7 +5473,7 @@
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
-      <c r="D157" s="6"/>
+      <c r="D157" s="8"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
@@ -5542,7 +5501,7 @@
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
-      <c r="D158" s="6"/>
+      <c r="D158" s="8"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
@@ -5570,7 +5529,7 @@
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
-      <c r="D159" s="6"/>
+      <c r="D159" s="8"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
@@ -5598,7 +5557,7 @@
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
-      <c r="D160" s="6"/>
+      <c r="D160" s="8"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
@@ -5626,7 +5585,7 @@
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
-      <c r="D161" s="6"/>
+      <c r="D161" s="8"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
@@ -5654,7 +5613,7 @@
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
-      <c r="D162" s="6"/>
+      <c r="D162" s="8"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
@@ -5682,7 +5641,7 @@
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
-      <c r="D163" s="6"/>
+      <c r="D163" s="8"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
@@ -5710,7 +5669,7 @@
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
-      <c r="D164" s="6"/>
+      <c r="D164" s="8"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
@@ -5738,7 +5697,7 @@
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
-      <c r="D165" s="6"/>
+      <c r="D165" s="8"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -5766,7 +5725,7 @@
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
-      <c r="D166" s="6"/>
+      <c r="D166" s="8"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -5794,7 +5753,7 @@
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
-      <c r="D167" s="6"/>
+      <c r="D167" s="8"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -5822,7 +5781,7 @@
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
-      <c r="D168" s="6"/>
+      <c r="D168" s="8"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
@@ -5850,7 +5809,7 @@
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
-      <c r="D169" s="6"/>
+      <c r="D169" s="8"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
@@ -5878,7 +5837,7 @@
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
-      <c r="D170" s="6"/>
+      <c r="D170" s="8"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
@@ -5906,7 +5865,7 @@
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
-      <c r="D171" s="6"/>
+      <c r="D171" s="8"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
@@ -5934,7 +5893,7 @@
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
-      <c r="D172" s="6"/>
+      <c r="D172" s="8"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -5962,7 +5921,7 @@
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
-      <c r="D173" s="6"/>
+      <c r="D173" s="8"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
@@ -5990,7 +5949,7 @@
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
-      <c r="D174" s="6"/>
+      <c r="D174" s="8"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
@@ -6018,7 +5977,7 @@
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
-      <c r="D175" s="6"/>
+      <c r="D175" s="8"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
@@ -6046,7 +6005,7 @@
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
-      <c r="D176" s="6"/>
+      <c r="D176" s="8"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
@@ -6074,7 +6033,7 @@
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
-      <c r="D177" s="6"/>
+      <c r="D177" s="8"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
@@ -6102,7 +6061,7 @@
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
-      <c r="D178" s="6"/>
+      <c r="D178" s="8"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
@@ -6130,7 +6089,7 @@
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
-      <c r="D179" s="6"/>
+      <c r="D179" s="8"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
@@ -6158,7 +6117,7 @@
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
-      <c r="D180" s="6"/>
+      <c r="D180" s="8"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
@@ -6186,7 +6145,7 @@
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
-      <c r="D181" s="6"/>
+      <c r="D181" s="8"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
@@ -6214,7 +6173,7 @@
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
-      <c r="D182" s="6"/>
+      <c r="D182" s="8"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
@@ -6242,7 +6201,7 @@
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
-      <c r="D183" s="6"/>
+      <c r="D183" s="8"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
@@ -6270,7 +6229,7 @@
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
-      <c r="D184" s="6"/>
+      <c r="D184" s="8"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
@@ -6298,7 +6257,7 @@
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
-      <c r="D185" s="6"/>
+      <c r="D185" s="8"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
@@ -6326,7 +6285,7 @@
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
-      <c r="D186" s="6"/>
+      <c r="D186" s="8"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
@@ -6354,7 +6313,7 @@
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
-      <c r="D187" s="6"/>
+      <c r="D187" s="8"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
@@ -6382,7 +6341,7 @@
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
-      <c r="D188" s="6"/>
+      <c r="D188" s="8"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
@@ -6410,7 +6369,7 @@
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
-      <c r="D189" s="6"/>
+      <c r="D189" s="8"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
@@ -6438,7 +6397,7 @@
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
-      <c r="D190" s="6"/>
+      <c r="D190" s="8"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
@@ -6466,7 +6425,7 @@
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
-      <c r="D191" s="6"/>
+      <c r="D191" s="8"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
@@ -6494,7 +6453,7 @@
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
-      <c r="D192" s="6"/>
+      <c r="D192" s="8"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
@@ -6522,7 +6481,7 @@
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
-      <c r="D193" s="6"/>
+      <c r="D193" s="8"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
@@ -6550,7 +6509,7 @@
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
-      <c r="D194" s="6"/>
+      <c r="D194" s="8"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
@@ -6578,7 +6537,7 @@
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
-      <c r="D195" s="6"/>
+      <c r="D195" s="8"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
@@ -6606,7 +6565,7 @@
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
-      <c r="D196" s="6"/>
+      <c r="D196" s="8"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
@@ -6634,7 +6593,7 @@
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
-      <c r="D197" s="6"/>
+      <c r="D197" s="8"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
@@ -6662,7 +6621,7 @@
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
-      <c r="D198" s="6"/>
+      <c r="D198" s="8"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
@@ -6690,7 +6649,7 @@
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
-      <c r="D199" s="6"/>
+      <c r="D199" s="8"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
@@ -6718,7 +6677,7 @@
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
-      <c r="D200" s="6"/>
+      <c r="D200" s="8"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
@@ -6746,7 +6705,7 @@
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
-      <c r="D201" s="6"/>
+      <c r="D201" s="8"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
@@ -6774,7 +6733,7 @@
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
-      <c r="D202" s="6"/>
+      <c r="D202" s="8"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
@@ -6802,7 +6761,7 @@
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
-      <c r="D203" s="6"/>
+      <c r="D203" s="8"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
@@ -6830,7 +6789,7 @@
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
-      <c r="D204" s="6"/>
+      <c r="D204" s="8"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
@@ -6858,7 +6817,7 @@
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
-      <c r="D205" s="6"/>
+      <c r="D205" s="8"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
@@ -6886,7 +6845,7 @@
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
-      <c r="D206" s="6"/>
+      <c r="D206" s="8"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
@@ -6914,7 +6873,7 @@
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
-      <c r="D207" s="6"/>
+      <c r="D207" s="8"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
@@ -6942,7 +6901,7 @@
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
-      <c r="D208" s="6"/>
+      <c r="D208" s="8"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
@@ -6970,7 +6929,7 @@
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
-      <c r="D209" s="6"/>
+      <c r="D209" s="8"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
@@ -6998,7 +6957,7 @@
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
-      <c r="D210" s="6"/>
+      <c r="D210" s="8"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
@@ -7026,7 +6985,7 @@
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
-      <c r="D211" s="6"/>
+      <c r="D211" s="8"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
@@ -7054,7 +7013,7 @@
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
-      <c r="D212" s="6"/>
+      <c r="D212" s="8"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
@@ -7082,7 +7041,7 @@
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
-      <c r="D213" s="6"/>
+      <c r="D213" s="8"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
@@ -7110,7 +7069,7 @@
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
-      <c r="D214" s="6"/>
+      <c r="D214" s="8"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
@@ -7138,7 +7097,7 @@
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
-      <c r="D215" s="6"/>
+      <c r="D215" s="8"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
@@ -7166,7 +7125,7 @@
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
-      <c r="D216" s="6"/>
+      <c r="D216" s="8"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
@@ -7194,7 +7153,7 @@
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
-      <c r="D217" s="6"/>
+      <c r="D217" s="8"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
@@ -7222,7 +7181,7 @@
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
-      <c r="D218" s="6"/>
+      <c r="D218" s="8"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
@@ -7250,7 +7209,7 @@
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
-      <c r="D219" s="6"/>
+      <c r="D219" s="8"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
@@ -7278,7 +7237,7 @@
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
-      <c r="D220" s="6"/>
+      <c r="D220" s="8"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
@@ -7306,7 +7265,7 @@
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
-      <c r="D221" s="6"/>
+      <c r="D221" s="8"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
@@ -7334,7 +7293,7 @@
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
-      <c r="D222" s="6"/>
+      <c r="D222" s="8"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
@@ -7362,7 +7321,7 @@
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
-      <c r="D223" s="6"/>
+      <c r="D223" s="8"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
@@ -7390,7 +7349,7 @@
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
-      <c r="D224" s="6"/>
+      <c r="D224" s="8"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
@@ -7418,7 +7377,7 @@
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
-      <c r="D225" s="6"/>
+      <c r="D225" s="8"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
@@ -7446,7 +7405,7 @@
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
-      <c r="D226" s="6"/>
+      <c r="D226" s="8"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
@@ -7474,7 +7433,7 @@
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
-      <c r="D227" s="6"/>
+      <c r="D227" s="8"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
@@ -7502,7 +7461,7 @@
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
-      <c r="D228" s="6"/>
+      <c r="D228" s="8"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
@@ -7530,7 +7489,7 @@
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
-      <c r="D229" s="6"/>
+      <c r="D229" s="8"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
@@ -7558,7 +7517,7 @@
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
-      <c r="D230" s="6"/>
+      <c r="D230" s="8"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
@@ -7586,7 +7545,7 @@
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
-      <c r="D231" s="6"/>
+      <c r="D231" s="8"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
@@ -7614,7 +7573,7 @@
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
-      <c r="D232" s="6"/>
+      <c r="D232" s="8"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
@@ -7642,7 +7601,7 @@
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
-      <c r="D233" s="6"/>
+      <c r="D233" s="8"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
@@ -7670,7 +7629,7 @@
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
-      <c r="D234" s="6"/>
+      <c r="D234" s="8"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
@@ -7698,7 +7657,7 @@
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
-      <c r="D235" s="6"/>
+      <c r="D235" s="8"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
@@ -7726,7 +7685,7 @@
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
-      <c r="D236" s="6"/>
+      <c r="D236" s="8"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
@@ -7754,7 +7713,7 @@
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
-      <c r="D237" s="6"/>
+      <c r="D237" s="8"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
@@ -7782,7 +7741,7 @@
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
-      <c r="D238" s="6"/>
+      <c r="D238" s="8"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
@@ -7810,7 +7769,7 @@
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
-      <c r="D239" s="6"/>
+      <c r="D239" s="8"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
@@ -7838,7 +7797,7 @@
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
-      <c r="D240" s="6"/>
+      <c r="D240" s="8"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
@@ -7866,7 +7825,7 @@
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
-      <c r="D241" s="6"/>
+      <c r="D241" s="8"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
@@ -7894,7 +7853,7 @@
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
-      <c r="D242" s="6"/>
+      <c r="D242" s="8"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
@@ -7922,7 +7881,7 @@
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
-      <c r="D243" s="6"/>
+      <c r="D243" s="8"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
@@ -7950,7 +7909,7 @@
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
-      <c r="D244" s="6"/>
+      <c r="D244" s="8"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="2"/>
@@ -7978,7 +7937,7 @@
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
-      <c r="D245" s="6"/>
+      <c r="D245" s="8"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
@@ -8006,7 +7965,7 @@
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
-      <c r="D246" s="6"/>
+      <c r="D246" s="8"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
@@ -8034,7 +7993,7 @@
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
-      <c r="D247" s="6"/>
+      <c r="D247" s="8"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
@@ -8062,7 +8021,7 @@
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
-      <c r="D248" s="6"/>
+      <c r="D248" s="8"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
@@ -8090,7 +8049,7 @@
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
-      <c r="D249" s="6"/>
+      <c r="D249" s="8"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
@@ -8118,7 +8077,7 @@
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
-      <c r="D250" s="6"/>
+      <c r="D250" s="8"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
@@ -8146,7 +8105,7 @@
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
-      <c r="D251" s="6"/>
+      <c r="D251" s="8"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
@@ -8174,7 +8133,7 @@
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
-      <c r="D252" s="6"/>
+      <c r="D252" s="8"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
@@ -8202,7 +8161,7 @@
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
-      <c r="D253" s="6"/>
+      <c r="D253" s="8"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
@@ -8230,7 +8189,7 @@
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
-      <c r="D254" s="6"/>
+      <c r="D254" s="8"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>

--- a/translation/xlsx/_tsum_tips_013.xlsx
+++ b/translation/xlsx/_tsum_tips_013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="174">
   <si>
     <t>actor</t>
   </si>
@@ -465,7 +465,7 @@
     <t xml:space="preserve"> It's not good to stay up so late...\"</t>
   </si>
   <si>
-    <t xml:space="preserve">밤을 새는 건 안 되와요....\" </t>
+    <t xml:space="preserve">밤을 새는 건 안 되어요....\" </t>
   </si>
   <si>
     <t>「……ごめんなさいなのです。</t>
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>\"...미안한 거예요.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">밤을 새는 건 안 되와요....\" </t>
   </si>
   <si>
     <t>寝苦しかったので星を見ていただけなのですよ。</t>
@@ -836,13 +839,13 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="2"/>
@@ -2418,7 +2421,7 @@
         <v>152</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
@@ -2441,19 +2444,19 @@
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
-      <c r="I50" t="s">
-        <v>156</v>
+      <c r="I50" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -2476,19 +2479,19 @@
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
-      <c r="I51" t="s">
-        <v>160</v>
+      <c r="I51" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
@@ -2513,19 +2516,19 @@
         <v>128</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
-      <c r="I52" t="s">
-        <v>164</v>
+      <c r="I52" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
@@ -2548,19 +2551,19 @@
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
-      <c r="I53" t="s">
-        <v>168</v>
+      <c r="I53" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -2585,19 +2588,19 @@
         <v>10</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
-      <c r="I54" t="s">
-        <v>172</v>
+      <c r="I54" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
